--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4088575.846740999</v>
+        <v>4084270.130364927</v>
       </c>
     </row>
     <row r="7">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>65.29405973828443</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>88.15868949188338</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -867,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>211.1681419695268</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>48.41995691227719</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>14.71784706642327</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>5.087923851180559</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,22 +1135,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>163.7031592155708</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>61.32905684098951</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>92.03069542442314</v>
       </c>
       <c r="I10" t="n">
-        <v>86.73774560116642</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695761</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C13" t="n">
-        <v>146.6281161973735</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428082</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012176</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="14">
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187887</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>103.8784673763403</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>83.06560892428297</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1855,10 +1855,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695612</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.702514956955</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>102.3739644559498</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>211.147499124903</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D28" t="n">
-        <v>102.1557845699813</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465691</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>35.41770597126882</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520947</v>
       </c>
     </row>
     <row r="29">
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>110.0177171766866</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>41.02686156550217</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>19.91555826189058</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.4774956074563874</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>25.52471385612634</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.2857567969021</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1307.111989013772</v>
+        <v>549.649320534154</v>
       </c>
       <c r="C2" t="n">
-        <v>1241.158393318536</v>
+        <v>549.649320534154</v>
       </c>
       <c r="D2" t="n">
-        <v>882.8926947117852</v>
+        <v>549.649320534154</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>163.8610679359097</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>156.9155671867063</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>142.9921631252972</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>142.9921631252972</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2423.485734520778</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2070.717079250664</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1697.251320989584</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1307.111989013772</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4403,25 +4403,25 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>1154.883827626213</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>785.9213106858012</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>427.6556120790507</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>427.6556120790507</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>420.7101113298473</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224079</v>
@@ -4585,10 +4585,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="W5" t="n">
-        <v>1640.777806202926</v>
+        <v>1528.349585887293</v>
       </c>
       <c r="X5" t="n">
-        <v>1640.777806202926</v>
+        <v>1154.883827626213</v>
       </c>
       <c r="Y5" t="n">
-        <v>1591.868758816787</v>
+        <v>1154.883827626213</v>
       </c>
     </row>
     <row r="6">
@@ -4637,25 +4637,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598707</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>262.3791120239296</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="C7" t="n">
-        <v>262.3791120239296</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="D7" t="n">
-        <v>262.3791120239296</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E7" t="n">
-        <v>114.4660184415364</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>722.9896671850402</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>722.9896671850402</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>722.9896671850402</v>
       </c>
       <c r="V7" t="n">
-        <v>444.0275768541693</v>
+        <v>468.3051789791533</v>
       </c>
       <c r="W7" t="n">
-        <v>444.0275768541693</v>
+        <v>468.3051789791533</v>
       </c>
       <c r="X7" t="n">
-        <v>444.0275768541693</v>
+        <v>468.3051789791533</v>
       </c>
       <c r="Y7" t="n">
-        <v>444.0275768541693</v>
+        <v>247.5125998356232</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1705.610057246</v>
+        <v>801.1640758398987</v>
       </c>
       <c r="C8" t="n">
-        <v>1540.253330765626</v>
+        <v>432.2015588994869</v>
       </c>
       <c r="D8" t="n">
-        <v>1181.987632158875</v>
+        <v>73.93586029273642</v>
       </c>
       <c r="E8" t="n">
-        <v>796.199379560631</v>
+        <v>73.93586029273642</v>
       </c>
       <c r="F8" t="n">
-        <v>789.2538788114275</v>
+        <v>66.99035954353295</v>
       </c>
       <c r="G8" t="n">
-        <v>372.1660970478549</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>192.4307036906658</v>
+        <v>325.1460354086931</v>
       </c>
       <c r="L8" t="n">
-        <v>745.243961936865</v>
+        <v>877.9592936548923</v>
       </c>
       <c r="M8" t="n">
-        <v>1376.961772920177</v>
+        <v>1281.162666244968</v>
       </c>
       <c r="N8" t="n">
-        <v>2004.269440980023</v>
+        <v>1475.49687913695</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.430645747101</v>
+        <v>2022.658083904028</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2482.349229285934</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2482.349229285934</v>
+        <v>2635.200548754597</v>
       </c>
       <c r="V8" t="n">
-        <v>2482.349229285934</v>
+        <v>2304.137661411026</v>
       </c>
       <c r="W8" t="n">
-        <v>2482.349229285934</v>
+        <v>1951.369006140912</v>
       </c>
       <c r="X8" t="n">
-        <v>2482.349229285934</v>
+        <v>1577.903247879832</v>
       </c>
       <c r="Y8" t="n">
-        <v>2092.209897310122</v>
+        <v>1187.76391590402</v>
       </c>
     </row>
     <row r="9">
@@ -4871,37 +4871,37 @@
         <v>484.7397722991365</v>
       </c>
       <c r="F9" t="n">
-        <v>338.2052143260214</v>
+        <v>338.2052143260215</v>
       </c>
       <c r="G9" t="n">
         <v>200.7638166852434</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004796</v>
+        <v>99.84783883004798</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>887.7329259922928</v>
+        <v>1006.392177849189</v>
       </c>
       <c r="M9" t="n">
-        <v>1528.278275459397</v>
+        <v>1646.937527316293</v>
       </c>
       <c r="N9" t="n">
-        <v>2195.822675486408</v>
+        <v>1845.594268968958</v>
       </c>
       <c r="O9" t="n">
-        <v>2355.334988155169</v>
+        <v>2005.106581637719</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>306.3214015232601</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="C10" t="n">
-        <v>306.3214015232601</v>
+        <v>884.9414803518023</v>
       </c>
       <c r="D10" t="n">
-        <v>306.3214015232601</v>
+        <v>734.8248409394665</v>
       </c>
       <c r="E10" t="n">
-        <v>306.3214015232601</v>
+        <v>586.9117473570734</v>
       </c>
       <c r="F10" t="n">
-        <v>159.4314540253497</v>
+        <v>440.021799859163</v>
       </c>
       <c r="G10" t="n">
-        <v>159.4314540253497</v>
+        <v>271.4149548545464</v>
       </c>
       <c r="H10" t="n">
-        <v>159.4314540253497</v>
+        <v>178.4546564460382</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>154.9909114159743</v>
@@ -4986,28 +4986,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>715.9594172515172</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>715.9594172515172</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>715.9594172515172</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>715.9594172515172</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>715.9594172515172</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="X10" t="n">
-        <v>487.9698663534998</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="Y10" t="n">
-        <v>487.9698663534998</v>
+        <v>1053.877663279709</v>
       </c>
     </row>
     <row r="11">
@@ -5029,25 +5029,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5056,34 +5056,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400706</v>
       </c>
       <c r="C13" t="n">
-        <v>615.644930552589</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="D13" t="n">
-        <v>465.5282911402533</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270435</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273913</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245692</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>776.1751066403282</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="D16" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="E16" t="n">
-        <v>365.9405071576781</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270456</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
@@ -5503,7 +5503,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,7 +5512,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5521,13 +5521,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5542,25 +5542,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1963.765362972544</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>244.7670222746419</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3195.647281583948</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>3026.711098656041</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>2876.594459243706</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4404.570273148498</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>4115.495046492696</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>4115.495046492696</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3826.077876455735</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3598.088325557718</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3377.295746414188</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5977,31 +5977,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1983.7822433412</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1983.7822433412</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1729.097755135313</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6217,28 +6217,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1468.439756756785</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>727.9786782557272</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278205</v>
       </c>
       <c r="D28" t="n">
-        <v>241.729756630365</v>
+        <v>408.9258559154848</v>
       </c>
       <c r="E28" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330918</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330918</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2411.187623003222</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1902.510931370361</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1358.409273127514</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>909.6271430859668</v>
       </c>
     </row>
     <row r="29">
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>716.6687843969308</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2757.723669558405</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>2757.723669558405</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>2757.723669558405</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>2757.723669558405</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673039</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467152</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>3388.154264430192</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>3160.164713532175</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>2939.372134388645</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6691,19 +6691,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>916.3099000622261</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>747.3737171343192</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>597.2570777219835</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>449.3439841395904</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>302.45403664168</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>135.2579373565599</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2090.842153176861</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1836.157664970974</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1546.740494934013</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1318.750944035996</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1097.958364892466</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6925,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7162,19 +7162,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7253,25 +7253,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>119.290296770379</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1099.149479058937</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7411,19 +7411,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7654,16 +7654,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7727,19 +7727,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>671.2000270096659</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1268.578514636218</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N45" t="n">
-        <v>1896.176478190825</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
         <v>1896.176478190825</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>800.5007694647277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>631.5645865368208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>631.5645865368208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>631.5645865368208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,10 +8069,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
-        <v>350.4438349360587</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142007</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>35.04072454780376</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>218.6908684491594</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,16 +8543,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>473.6238973478236</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>151.0368508858075</v>
+        <v>294.7256303393017</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>20.61870490125432</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.22910392194315</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856562</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>41.54258064659095</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194089</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>115.0314858713385</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>6.257951202385243</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462238</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856542</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012157</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>145.6085800303757</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>35.40333084624467</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>99.26785128072171</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>145.6085800303782</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.3544845744809</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>191.8807364711619</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1352912260291248</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>610239.5014876033</v>
+        <v>610239.5014876032</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>610239.5014876033</v>
+        <v>610239.5014876032</v>
       </c>
     </row>
     <row r="13">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642828</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642829</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642836</v>
+        <v>821041.7698642835</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.599690006</v>
       </c>
       <c r="F2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="G2" t="n">
-        <v>807146.5996900058</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="H2" t="n">
-        <v>807146.5996900065</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="I2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="J2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="K2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="L2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="M2" t="n">
         <v>807146.5996900061</v>
       </c>
-      <c r="K2" t="n">
-        <v>807146.5996900063</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="O2" t="n">
         <v>807146.5996900062</v>
       </c>
-      <c r="M2" t="n">
-        <v>807146.5996900063</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>807146.599690006</v>
-      </c>
-      <c r="O2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="P2" t="n">
-        <v>807146.5996900062</v>
       </c>
     </row>
     <row r="3">
@@ -26365,25 +26365,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481116</v>
+        <v>184756.2785481114</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808064</v>
+        <v>771052.6913808067</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.686242854208793e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.60042306972432e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080586</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,40 +26423,40 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012793</v>
+        <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
+        <v>5677.536566682566</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5677.536566682649</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5677.536566682707</v>
+      </c>
+      <c r="H4" t="n">
         <v>5677.536566682745</v>
-      </c>
-      <c r="F4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5677.536566682744</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5677.536566682744</v>
       </c>
       <c r="I4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.53656668278</v>
       </c>
       <c r="K4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682797</v>
       </c>
       <c r="N4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="P4" t="n">
         <v>5677.536566682745</v>
@@ -26472,7 +26472,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
         <v>87562.0451708468</v>
@@ -26481,7 +26481,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-61707.60287670439</v>
+        <v>-61707.60287670413</v>
       </c>
       <c r="C6" t="n">
-        <v>528260.2763378402</v>
+        <v>528260.2763378404</v>
       </c>
       <c r="D6" t="n">
         <v>372456.4702440459</v>
       </c>
       <c r="E6" t="n">
-        <v>-70706.15808139001</v>
+        <v>-71053.53733574737</v>
       </c>
       <c r="F6" t="n">
-        <v>700346.5332994164</v>
+        <v>699999.1540450592</v>
       </c>
       <c r="G6" t="n">
-        <v>700346.533299416</v>
+        <v>699999.1540450602</v>
       </c>
       <c r="H6" t="n">
-        <v>700346.5332994167</v>
+        <v>699999.1540450595</v>
       </c>
       <c r="I6" t="n">
-        <v>700346.5332994164</v>
+        <v>699999.1540450595</v>
       </c>
       <c r="J6" t="n">
-        <v>523923.3141068234</v>
+        <v>523575.9348524664</v>
       </c>
       <c r="K6" t="n">
-        <v>700346.5332994165</v>
+        <v>699999.1540450595</v>
       </c>
       <c r="L6" t="n">
-        <v>700346.5332994164</v>
+        <v>699999.1540450596</v>
       </c>
       <c r="M6" t="n">
-        <v>576138.0225913581</v>
+        <v>575790.6433370007</v>
       </c>
       <c r="N6" t="n">
-        <v>700346.5332994162</v>
+        <v>699999.1540450593</v>
       </c>
       <c r="O6" t="n">
-        <v>700346.5332994163</v>
+        <v>699999.1540450595</v>
       </c>
       <c r="P6" t="n">
-        <v>700346.5332994164</v>
+        <v>699999.1540450592</v>
       </c>
     </row>
   </sheetData>
@@ -26709,13 +26709,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.111223756689422e-13</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26792,16 +26792,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26919,13 +26919,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.111223756689422e-13</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209784</v>
+        <v>215.7324361209782</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036091</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450933</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450931</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,13 +27156,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.111223756689422e-13</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450933</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>299.9788320327231</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>63.77262675297787</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,22 +27581,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>83.12091415361559</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>202.6160280512682</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>337.8179817437764</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>130.703200956508</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>207.0576150988383</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,22 +27855,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>201.5697325554367</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -27906,19 +27906,19 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>189.8257293813111</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>60.68140124480941</v>
       </c>
       <c r="I10" t="n">
-        <v>36.52881227825056</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28089,22 +28089,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-1.111223756689422e-13</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-1.111223756689422e-13</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-1.111223756689422e-13</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-1.111223756689422e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-1.111223756689422e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28140,13 +28140,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-2.359001882723533e-12</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-1.111223756689422e-13</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-1.111223756689422e-13</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-1.111223756689422e-13</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>-1.111223756689422e-13</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>-1.111223756689422e-13</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-1.111223756689422e-13</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-1.111223756689422e-13</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-1.111223756689422e-13</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-1.111223756689422e-13</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-1.111223756689422e-13</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>-1.111223756689422e-13</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>-1.111223756689422e-13</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>-1.111223756689422e-13</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>-1.111223756689422e-13</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>-1.111223756689422e-13</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>-1.111223756689422e-13</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-1.111223756689422e-13</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>-1.111223756689422e-13</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>-1.111223756689422e-13</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>-1.111223756689422e-13</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>-1.111223756689422e-13</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-1.111223756689422e-13</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>-1.111223756689422e-13</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>-1.111223756689422e-13</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>-1.111223756689422e-13</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>-1.111223756689422e-13</v>
       </c>
     </row>
     <row r="14">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1.111223756689422e-13</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1.111223756689422e-13</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1.111223756689422e-13</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1.111223756689422e-13</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1.111223756689422e-13</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1.111223756689422e-13</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1.111223756689422e-13</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1.111223756689422e-13</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1.111223756689422e-13</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1.111223756689422e-13</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1.111223756689422e-13</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1.111223756689422e-13</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1.111223756689422e-13</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1.111223756689422e-13</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>1.111223756689422e-13</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>1.111223756689422e-13</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1.111223756689422e-13</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>1.111223756689422e-13</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.111223756689422e-13</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1.111223756689422e-13</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1.111223756689422e-13</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1.111223756689422e-13</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>1.111223756689422e-13</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>1.111223756689422e-13</v>
       </c>
     </row>
     <row r="29">
@@ -30042,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31281,46 +31281,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31457,28 +31457,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>639.8517673857162</v>
+        <v>463.9598929192546</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543339</v>
       </c>
       <c r="L15" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,13 +32311,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32329,16 +32329,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>456.5952253539618</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32472,7 +32472,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
         <v>699.5441750817575</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32563,13 +32563,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32785,10 +32785,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,16 +33022,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33043,10 +33043,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33268,10 +33268,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>279.2419622547062</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33280,10 +33280,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33423,7 +33423,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33505,7 +33505,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33745,16 +33745,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>652.0478969157701</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33973,13 +33973,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>163.5723821283055</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33991,10 +33991,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34207,34 +34207,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>744.5154887882966</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34447,22 +34447,22 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>570.6116741576916</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>270.9486956727256</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
-        <v>401.1632560839189</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047519</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,10 +35096,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M7" t="n">
         <v>146.3614835535656</v>
@@ -35108,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>118.4378503807253</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>407.2761339293692</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
@@ -35263,16 +35263,16 @@
         <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>674.2872727545556</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
         <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
-        <v>260.8243534386346</v>
+        <v>404.5131328921288</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>508.510055302383</v>
+        <v>332.6181808359212</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
         <v>426.2724270010451</v>
@@ -35585,10 +35585,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>35.97859357997496</v>
       </c>
       <c r="L15" t="n">
-        <v>110.1905571410453</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35889,7 +35889,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M17" t="n">
         <v>735.3001107902948</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35977,16 +35977,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>322.6208179396315</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36211,13 +36211,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36691,10 +36691,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,13 +36837,13 @@
         <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O29" t="n">
         <v>696.488651224316</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,10 +36916,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>140.6875824748321</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36928,10 +36928,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,7 +37153,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37326,7 +37326,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37393,16 +37393,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>509.9138629937518</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37563,7 +37563,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>25.73094315394657</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37639,10 +37639,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>602.3814548662783</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38095,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>432.0572943778175</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4084270.130364927</v>
+        <v>4086030.660667713</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>59.66385641544559</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -910,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>211.1681419695268</v>
+        <v>211.1681419695263</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481165</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1065,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853697</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>5.087923851180559</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>157.0044783406141</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>61.32905684098951</v>
+        <v>61.32905684098905</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695761</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881302</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470136</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986279</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428082</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012176</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016447</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272884</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520949</v>
+        <v>104.42621246293</v>
       </c>
     </row>
     <row r="14">
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187887</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428297</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695612</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.702514956955</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576153</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465691</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>35.41770597126882</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272882</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.184474389244</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V28" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3277,10 +3277,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417092</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>19.91555826189058</v>
+        <v>27.02919805176115</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>25.52471385612634</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4421,10 +4421,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
         <v>667.8624625746712</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1154.883827626213</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="C5" t="n">
-        <v>785.9213106858012</v>
+        <v>785.9213106858008</v>
       </c>
       <c r="D5" t="n">
-        <v>427.6556120790507</v>
+        <v>427.6556120790503</v>
       </c>
       <c r="E5" t="n">
-        <v>427.6556120790507</v>
+        <v>427.6556120790503</v>
       </c>
       <c r="F5" t="n">
-        <v>420.7101113298473</v>
+        <v>420.7101113298468</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4564,7 +4564,7 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,10 +4585,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4600,19 +4600,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500978</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157407</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>1528.349585887293</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X5" t="n">
-        <v>1154.883827626213</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y5" t="n">
-        <v>1154.883827626213</v>
+        <v>1154.883827626212</v>
       </c>
     </row>
     <row r="6">
@@ -4637,22 +4637,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598707</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>247.5125998356232</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C7" t="n">
-        <v>247.5125998356232</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D7" t="n">
-        <v>247.5125998356232</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323009</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4734,43 +4734,43 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>722.9896671850402</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>722.9896671850402</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>722.9896671850402</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>468.3051789791533</v>
+        <v>569.538602044198</v>
       </c>
       <c r="W7" t="n">
-        <v>468.3051789791533</v>
+        <v>569.538602044198</v>
       </c>
       <c r="X7" t="n">
-        <v>468.3051789791533</v>
+        <v>569.538602044198</v>
       </c>
       <c r="Y7" t="n">
-        <v>247.5125998356232</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="8">
@@ -4786,22 +4786,22 @@
         <v>432.2015588994869</v>
       </c>
       <c r="D8" t="n">
-        <v>73.93586029273642</v>
+        <v>73.93586029273641</v>
       </c>
       <c r="E8" t="n">
-        <v>73.93586029273642</v>
+        <v>73.93586029273641</v>
       </c>
       <c r="F8" t="n">
-        <v>66.99035954353295</v>
+        <v>66.99035954353293</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>242.5828808341008</v>
@@ -4813,28 +4813,28 @@
         <v>877.9592936548923</v>
       </c>
       <c r="M8" t="n">
-        <v>1281.162666244968</v>
+        <v>1281.162666244967</v>
       </c>
       <c r="N8" t="n">
         <v>1475.49687913695</v>
       </c>
       <c r="O8" t="n">
-        <v>2022.658083904028</v>
+        <v>2022.658083904027</v>
       </c>
       <c r="P8" t="n">
         <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
         <v>2635.200548754597</v>
@@ -4871,16 +4871,16 @@
         <v>484.7397722991365</v>
       </c>
       <c r="F9" t="n">
-        <v>338.2052143260215</v>
+        <v>338.2052143260214</v>
       </c>
       <c r="G9" t="n">
         <v>200.7638166852434</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004798</v>
+        <v>99.84783883004796</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>172.6022336772601</v>
@@ -4959,10 +4959,10 @@
         <v>178.4546564460382</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>154.9909114159743</v>
@@ -5029,31 +5029,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797193</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068011</v>
@@ -5068,22 +5068,22 @@
         <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400706</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121636</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121636</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121636</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121636</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270435</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681612</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138407</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703105</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168634</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5293,37 +5293,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,19 +5351,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273913</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.230692780394</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245692</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403282</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
         <v>1373.553594266881</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400726</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121657</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121657</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121657</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121657</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270456</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.28419561186</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138424</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703123</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5542,25 +5542,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5652,22 +5652,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5749,7 +5749,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5977,7 +5977,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,10 +5986,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -5998,13 +5998,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6171,7 +6171,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
         <v>2254.869721166297</v>
@@ -6220,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6253,7 +6253,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>727.9786782557272</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C28" t="n">
-        <v>559.0424953278205</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>408.9258559154848</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330918</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330918</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2411.187623003222</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2191.586158026164</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>1902.510931370361</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V28" t="n">
-        <v>1647.826443164475</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>1358.409273127514</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>1130.419722229497</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>909.6271430859668</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6645,7 +6645,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
         <v>2254.869721166297</v>
@@ -6697,22 +6697,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,37 +6952,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="36">
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>113.9333885650331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>113.9333885650331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7171,19 +7171,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7192,10 +7192,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7402,31 +7402,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7651,19 +7651,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7785,22 +7785,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -8069,13 +8069,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142007</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8461,7 +8461,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>218.6908684491594</v>
+        <v>218.6908684491589</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194315</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856562</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>114.1584408891648</v>
       </c>
     </row>
     <row r="14">
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194089</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462238</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856542</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012157</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>145.6085800303757</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>145.6085800303782</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>191.8807364711619</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>610239.5014876032</v>
+        <v>610239.5014876033</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>610239.5014876032</v>
+        <v>610239.5014876033</v>
       </c>
     </row>
     <row r="11">
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.769864283</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.769864283</v>
       </c>
       <c r="D2" t="n">
         <v>821041.7698642835</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900065</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="G2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="H2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="I2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="J2" t="n">
+        <v>807146.5996900065</v>
+      </c>
+      <c r="K2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="L2" t="n">
         <v>807146.5996900062</v>
       </c>
-      <c r="K2" t="n">
-        <v>807146.5996900062</v>
-      </c>
-      <c r="L2" t="n">
-        <v>807146.5996900063</v>
-      </c>
       <c r="M2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.599690006</v>
       </c>
       <c r="N2" t="n">
         <v>807146.5996900061</v>
@@ -26355,7 +26355,7 @@
         <v>807146.5996900062</v>
       </c>
       <c r="P2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900062</v>
       </c>
     </row>
     <row r="3">
@@ -26365,31 +26365,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481114</v>
+        <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808067</v>
+        <v>771052.691380807</v>
       </c>
       <c r="F3" t="n">
-        <v>2.686242854208793e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.60042306972432e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26401,7 +26401,7 @@
         <v>124208.5107080586</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.139184627798386e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26426,13 +26426,13 @@
         <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682566</v>
+        <v>5677.536566682663</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682649</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682707</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="H4" t="n">
         <v>5677.536566682745</v>
@@ -26441,7 +26441,7 @@
         <v>5677.536566682745</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.53656668278</v>
+        <v>5677.536566682782</v>
       </c>
       <c r="K4" t="n">
         <v>5677.536566682744</v>
@@ -26450,7 +26450,7 @@
         <v>5677.536566682744</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682797</v>
+        <v>5677.536566682842</v>
       </c>
       <c r="N4" t="n">
         <v>5677.536566682744</v>
@@ -26472,16 +26472,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>87562.0451708468</v>
       </c>
       <c r="E5" t="n">
+        <v>101122.5298239072</v>
+      </c>
+      <c r="F5" t="n">
         <v>101122.5298239071</v>
-      </c>
-      <c r="F5" t="n">
-        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-61707.60287670413</v>
       </c>
       <c r="C6" t="n">
-        <v>528260.2763378404</v>
+        <v>528260.2763378402</v>
       </c>
       <c r="D6" t="n">
-        <v>372456.4702440459</v>
+        <v>372456.4702440458</v>
       </c>
       <c r="E6" t="n">
-        <v>-71053.53733574737</v>
+        <v>-70740.89600682601</v>
       </c>
       <c r="F6" t="n">
-        <v>699999.1540450592</v>
+        <v>700311.7953739811</v>
       </c>
       <c r="G6" t="n">
-        <v>699999.1540450602</v>
+        <v>700311.7953739808</v>
       </c>
       <c r="H6" t="n">
-        <v>699999.1540450595</v>
+        <v>700311.7953739809</v>
       </c>
       <c r="I6" t="n">
-        <v>699999.1540450595</v>
+        <v>700311.7953739808</v>
       </c>
       <c r="J6" t="n">
-        <v>523575.9348524664</v>
+        <v>523888.5761813882</v>
       </c>
       <c r="K6" t="n">
-        <v>699999.1540450595</v>
+        <v>700311.7953739807</v>
       </c>
       <c r="L6" t="n">
-        <v>699999.1540450596</v>
+        <v>700311.7953739808</v>
       </c>
       <c r="M6" t="n">
-        <v>575790.6433370007</v>
+        <v>576103.2846659218</v>
       </c>
       <c r="N6" t="n">
-        <v>699999.1540450593</v>
+        <v>700311.7953739803</v>
       </c>
       <c r="O6" t="n">
-        <v>699999.1540450595</v>
+        <v>700311.7953739808</v>
       </c>
       <c r="P6" t="n">
-        <v>699999.1540450592</v>
+        <v>700311.7953739809</v>
       </c>
     </row>
   </sheetData>
@@ -26709,13 +26709,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.111223756689422e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170869</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26792,16 +26792,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26919,13 +26919,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.111223756689422e-13</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209782</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036091</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450933</v>
+        <v>498.4210153450935</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450931</v>
+        <v>498.421015345093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,13 +27156,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.111223756689422e-13</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450933</v>
+        <v>498.4210153450935</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>107.5829646831822</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27630,7 +27630,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>202.6160280512682</v>
+        <v>202.6160280512687</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491427</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>207.0576150988383</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27833,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>95.13316498321393</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27909,7 +27909,7 @@
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>189.8257293813111</v>
+        <v>189.8257293813116</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.111223756689422e-13</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.111223756689422e-13</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.111223756689422e-13</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.111223756689422e-13</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.111223756689422e-13</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,16 +28140,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-2.359001882723533e-12</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>-1.111223756689422e-13</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>-1.111223756689422e-13</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-1.157194799753628e-12</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.111223756689422e-13</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.111223756689422e-13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.111223756689422e-13</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.111223756689422e-13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.111223756689422e-13</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.111223756689422e-13</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.111223756689422e-13</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.111223756689422e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-1.111223756689422e-13</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-1.111223756689422e-13</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>-1.111223756689422e-13</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>-1.111223756689422e-13</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-1.111223756689422e-13</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>-1.111223756689422e-13</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>-1.111223756689422e-13</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-1.111223756689422e-13</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-1.111223756689422e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>-1.111223756689422e-13</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>-1.111223756689422e-13</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>-1.111223756689422e-13</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-1.111223756689422e-13</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-1.111223756689422e-13</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>-1.111223756689422e-13</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>-1.111223756689422e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.111223756689422e-13</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1.111223756689422e-13</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1.111223756689422e-13</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1.111223756689422e-13</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1.111223756689422e-13</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.111223756689422e-13</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1.111223756689422e-13</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1.111223756689422e-13</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.111223756689422e-13</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>1.111223756689422e-13</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>1.111223756689422e-13</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1.111223756689422e-13</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>1.111223756689422e-13</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1.111223756689422e-13</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>1.111223756689422e-13</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.111223756689422e-13</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>1.111223756689422e-13</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>1.111223756689422e-13</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>1.111223756689422e-13</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>1.111223756689422e-13</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>1.111223756689422e-13</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>1.111223756689422e-13</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>1.111223756689422e-13</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.111223756689422e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -29997,10 +29997,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30042,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31281,10 +31281,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31293,34 +31293,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890691</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31457,28 +31457,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.307619600775</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>173.8200325543339</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437246</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33423,7 +33423,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33648,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33687,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33736,22 +33736,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,10 +33763,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33812,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
         <v>339.3493584601592</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>142.5962444444444</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34941,22 +34941,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047519</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
@@ -35096,10 +35096,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
         <v>146.3614835535656</v>
@@ -35108,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35181,7 +35181,7 @@
         <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>407.2761339293692</v>
+        <v>407.2761339293687</v>
       </c>
       <c r="N8" t="n">
         <v>196.2971847393761</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
         <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774958</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>35.97859357997496</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674334</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992802</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37472,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37633,10 +37633,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
